--- a/NitratePaper SI _ site information.xlsx
+++ b/NitratePaper SI _ site information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\2nd NP paper\try Nature\submission _ 0724 ——Nature Geoscience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weizh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51C6BE-D664-4537-A694-3D1E21D27D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4048AF64-A0CD-4BB1-A9C1-CC8F11768C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="site list" sheetId="1" r:id="rId1"/>
     <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -198,31 +199,7 @@
     <t>USGS ID</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drainage area (square miles)</t>
-    </r>
-  </si>
-  <si>
     <t>%Agriculture</t>
-  </si>
-  <si>
-    <t>Nitrate_Cstream (mg/L)</t>
-  </si>
-  <si>
-    <t>Nitrate_Csoil (mg/L)</t>
-  </si>
-  <si>
-    <t>Nitrate_Cgw (mg/L)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cratio (Csw/Cgw) </t>
   </si>
   <si>
     <r>
@@ -360,7 +337,285 @@
     <t>Note:</t>
   </si>
   <si>
-    <t xml:space="preserve">For NAWAQ sites, the Cstream and C-Q slope b is calculated using the long-term C-Q records; for high-frequency WQW sites (with sufficient paird C-Q data for each water year), the Cstream, Csoil, Cgw, Cratio, and C-Q slope b are the average of multiple water year's data. </t>
+    <r>
+      <t>For NAWAQ sites, the C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and C-Q slope </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is calculated using the long-term C-Q records; for high-frequency WQW sites (with sufficient paird C-Q data for each water year), the C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and C-Q slope </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are the average of multiple water year's data. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drainage area (km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nitrate_C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>stream</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (mg/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nitrate_C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>soil</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (mg/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nitrate_C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gw</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (mg/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Csw/Cgw) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -376,7 +631,7 @@
     <numFmt numFmtId="169" formatCode="000000000"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +703,37 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF231F20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -476,7 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -647,8 +933,16 @@
     <xf numFmtId="167" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,30 +951,28 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,69 +1282,71 @@
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="M1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1068,7 +1362,7 @@
         <v>-85.509100000000004</v>
       </c>
       <c r="E3" s="17">
-        <v>366</v>
+        <v>947.53044599999998</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -1086,7 +1380,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1103,7 +1397,7 @@
         <v>-86.254999999999995</v>
       </c>
       <c r="E4" s="17">
-        <v>9</v>
+        <v>23.299928999999999</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
@@ -1121,7 +1415,7 @@
         <v>-0.16</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1138,7 +1432,7 @@
         <v>-86.3536</v>
       </c>
       <c r="E5" s="17">
-        <v>59</v>
+        <v>152.743979</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>0</v>
@@ -1156,7 +1450,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1173,7 +1467,7 @@
         <v>-86.806399999999996</v>
       </c>
       <c r="E6" s="17">
-        <v>26</v>
+        <v>67.310906000000003</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -1191,7 +1485,7 @@
         <v>-0.6</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1208,7 +1502,7 @@
         <v>-86.116600000000005</v>
       </c>
       <c r="E7" s="17">
-        <v>54</v>
+        <v>139.79957399999998</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
@@ -1226,7 +1520,7 @@
         <v>0.4</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1243,7 +1537,7 @@
         <v>-86.4636</v>
       </c>
       <c r="E8" s="17">
-        <v>29</v>
+        <v>75.077549000000005</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
@@ -1261,7 +1555,7 @@
         <v>0.01</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1278,7 +1572,7 @@
         <v>-86.446700000000007</v>
       </c>
       <c r="E9" s="17">
-        <v>374</v>
+        <v>968.24149399999988</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1</v>
@@ -1296,7 +1590,7 @@
         <v>-0.17</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1313,7 +1607,7 @@
         <v>-93.3566</v>
       </c>
       <c r="E10" s="17">
-        <v>52</v>
+        <v>134.62181200000001</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
@@ -1331,7 +1625,7 @@
         <v>0.09</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1348,7 +1642,7 @@
         <v>-93.403499999999994</v>
       </c>
       <c r="E11" s="17">
-        <v>59</v>
+        <v>152.743979</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>0</v>
@@ -1366,7 +1660,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1383,7 +1677,7 @@
         <v>-111.694</v>
       </c>
       <c r="E12" s="17">
-        <v>237</v>
+        <v>613.564797</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>0</v>
@@ -1401,7 +1695,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1418,7 +1712,7 @@
         <v>-121.383</v>
       </c>
       <c r="E13" s="17">
-        <v>31</v>
+        <v>80.255310999999992</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>3</v>
@@ -1436,7 +1730,7 @@
         <v>0.12</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1453,7 +1747,7 @@
         <v>-121.01600000000001</v>
       </c>
       <c r="E14" s="17">
-        <v>11</v>
+        <v>28.477690999999997</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>1</v>
@@ -1471,7 +1765,7 @@
         <v>-0.34</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1488,7 +1782,7 @@
         <v>-117.3</v>
       </c>
       <c r="E15" s="17">
-        <v>12</v>
+        <v>31.066572000000001</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>3</v>
@@ -1506,7 +1800,7 @@
         <v>0.22</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1523,7 +1817,7 @@
         <v>-117.599</v>
       </c>
       <c r="E16" s="17">
-        <v>80</v>
+        <v>207.11048</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
@@ -1541,7 +1835,7 @@
         <v>-0.3</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1558,7 +1852,7 @@
         <v>-104.86799999999999</v>
       </c>
       <c r="E17" s="17">
-        <v>169</v>
+        <v>437.52088900000001</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>0</v>
@@ -1576,7 +1870,7 @@
         <v>-0.45</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1593,7 +1887,7 @@
         <v>-105.584</v>
       </c>
       <c r="E18" s="17">
-        <v>40</v>
+        <v>103.55524</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>0</v>
@@ -1611,7 +1905,7 @@
         <v>-0.12</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1628,7 +1922,7 @@
         <v>-105.857</v>
       </c>
       <c r="E19" s="17">
-        <v>63</v>
+        <v>163.099503</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>0</v>
@@ -1646,7 +1940,7 @@
         <v>-0.11</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1663,7 +1957,7 @@
         <v>-106.045</v>
       </c>
       <c r="E20" s="17">
-        <v>11</v>
+        <v>28.477690999999997</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>2</v>
@@ -1681,7 +1975,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1698,7 +1992,7 @@
         <v>-73.218599999999995</v>
       </c>
       <c r="E21" s="17">
-        <v>10</v>
+        <v>25.888809999999999</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>3</v>
@@ -1716,7 +2010,7 @@
         <v>-0.11</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1733,7 +2027,7 @@
         <v>-82.352000000000004</v>
       </c>
       <c r="E22" s="17">
-        <v>29</v>
+        <v>75.077549000000005</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>2</v>
@@ -1751,7 +2045,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1768,13 +2062,13 @@
         <v>-82.565830000000005</v>
       </c>
       <c r="E23" s="17">
-        <v>20</v>
+        <v>51.777619999999999</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H23" s="6">
         <v>7.3999999999999996E-2</v>
@@ -1786,7 +2080,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1803,7 +2097,7 @@
         <v>-83.821600000000004</v>
       </c>
       <c r="E24" s="17">
-        <v>18</v>
+        <v>46.599857999999998</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>2</v>
@@ -1821,7 +2115,7 @@
         <v>-9.4E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1838,7 +2132,7 @@
         <v>-84.443299999999994</v>
       </c>
       <c r="E25" s="17">
-        <v>31</v>
+        <v>80.255310999999992</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>3</v>
@@ -1856,7 +2150,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1873,7 +2167,7 @@
         <v>-84.407700000000006</v>
       </c>
       <c r="E26" s="17">
-        <v>86</v>
+        <v>222.643766</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>3</v>
@@ -1891,7 +2185,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1908,7 +2202,7 @@
         <v>-84.928299999999993</v>
       </c>
       <c r="E27" s="17">
-        <v>36</v>
+        <v>93.199715999999995</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>0</v>
@@ -1926,7 +2220,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="M27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1943,13 +2237,13 @@
         <v>-85.226939999999999</v>
       </c>
       <c r="E28" s="17">
-        <v>17</v>
+        <v>44.010977000000004</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H28" s="6">
         <v>0.24</v>
@@ -1961,7 +2255,7 @@
         <v>0.39</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1978,7 +2272,7 @@
         <v>-83.992400000000004</v>
       </c>
       <c r="E29" s="17">
-        <v>62</v>
+        <v>160.51062199999998</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>1</v>
@@ -1996,7 +2290,7 @@
         <v>0.22</v>
       </c>
       <c r="M29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2013,7 +2307,7 @@
         <v>-83.501599999999996</v>
       </c>
       <c r="E30" s="17">
-        <v>162</v>
+        <v>419.39872200000002</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>1</v>
@@ -2031,7 +2325,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2048,7 +2342,7 @@
         <v>-83.584100000000007</v>
       </c>
       <c r="E31" s="17">
-        <v>129</v>
+        <v>333.96564899999998</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>1</v>
@@ -2066,7 +2360,7 @@
         <v>0.22</v>
       </c>
       <c r="M31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2083,7 +2377,7 @@
         <v>-116.18300000000001</v>
       </c>
       <c r="E32" s="17">
-        <v>126</v>
+        <v>326.199006</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>0</v>
@@ -2101,7 +2395,7 @@
         <v>0.04</v>
       </c>
       <c r="M32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2118,7 +2412,7 @@
         <v>-115.35299999999999</v>
       </c>
       <c r="E33" s="17">
-        <v>106</v>
+        <v>274.42138599999998</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>0</v>
@@ -2136,7 +2430,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="M33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2153,7 +2447,7 @@
         <v>-114.495</v>
       </c>
       <c r="E34" s="17">
-        <v>241</v>
+        <v>623.92032100000006</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>1</v>
@@ -2171,7 +2465,7 @@
         <v>-0.55000000000000004</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2188,7 +2482,7 @@
         <v>-114.021</v>
       </c>
       <c r="E35" s="17">
-        <v>442</v>
+        <v>1144.285402</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>0</v>
@@ -2206,7 +2500,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2223,7 +2517,7 @@
         <v>-89.835400000000007</v>
       </c>
       <c r="E36" s="17">
-        <v>63</v>
+        <v>163.099503</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>1</v>
@@ -2241,7 +2535,7 @@
         <v>0.44</v>
       </c>
       <c r="M36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2258,7 +2552,7 @@
         <v>-87.900099999999995</v>
       </c>
       <c r="E37" s="17">
-        <v>112</v>
+        <v>289.95467200000002</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>3</v>
@@ -2276,7 +2570,7 @@
         <v>-0.56000000000000005</v>
       </c>
       <c r="M37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2293,7 +2587,7 @@
         <v>-88.369299999999996</v>
       </c>
       <c r="E38" s="17">
-        <v>85</v>
+        <v>220.05488499999998</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>2</v>
@@ -2311,7 +2605,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2328,7 +2622,7 @@
         <v>-86.196600000000004</v>
       </c>
       <c r="E39" s="17">
-        <v>17</v>
+        <v>44.010977000000004</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>2</v>
@@ -2346,7 +2640,7 @@
         <v>0.15</v>
       </c>
       <c r="M39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2363,7 +2657,7 @@
         <v>-87.277000000000001</v>
       </c>
       <c r="E40" s="17">
-        <v>56</v>
+        <v>144.97733600000001</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>1</v>
@@ -2381,7 +2675,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="M40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2398,7 +2692,7 @@
         <v>-85.673900000000003</v>
       </c>
       <c r="E41" s="17">
-        <v>292</v>
+        <v>755.95325199999991</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>1</v>
@@ -2416,7 +2710,7 @@
         <v>0.26</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2433,7 +2727,7 @@
         <v>-86.365300000000005</v>
       </c>
       <c r="E42" s="17">
-        <v>35</v>
+        <v>90.610834999999994</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>1</v>
@@ -2451,7 +2745,7 @@
         <v>-0.09</v>
       </c>
       <c r="M42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2468,7 +2762,7 @@
         <v>-85.695499999999996</v>
       </c>
       <c r="E43" s="17">
-        <v>88</v>
+        <v>227.82152799999997</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>1</v>
@@ -2486,7 +2780,7 @@
         <v>0.37</v>
       </c>
       <c r="M43" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2503,7 +2797,7 @@
         <v>-85.879400000000004</v>
       </c>
       <c r="E44" s="17">
-        <v>95</v>
+        <v>245.94369499999999</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>1</v>
@@ -2521,7 +2815,7 @@
         <v>0.53</v>
       </c>
       <c r="M44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -2538,7 +2832,7 @@
         <v>-90.169499999999999</v>
       </c>
       <c r="E45" s="17">
-        <v>141</v>
+        <v>365.03222099999999</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>2</v>
@@ -2556,7 +2850,7 @@
         <v>0.27</v>
       </c>
       <c r="M45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -2573,7 +2867,7 @@
         <v>-92.490399999999994</v>
       </c>
       <c r="E46" s="17">
-        <v>142</v>
+        <v>367.62110200000001</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>1</v>
@@ -2591,7 +2885,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2608,7 +2902,7 @@
         <v>-72.670599999999993</v>
       </c>
       <c r="E47" s="17">
-        <v>41</v>
+        <v>106.14412099999998</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>0</v>
@@ -2626,7 +2920,7 @@
         <v>0.06</v>
       </c>
       <c r="M47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -2643,7 +2937,7 @@
         <v>-71.791200000000003</v>
       </c>
       <c r="E48" s="17">
-        <v>30</v>
+        <v>77.666429999999991</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>2</v>
@@ -2661,7 +2955,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
       <c r="M48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2678,7 +2972,7 @@
         <v>-71.027000000000001</v>
       </c>
       <c r="E49" s="17">
-        <v>45</v>
+        <v>116.499645</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>3</v>
@@ -2696,7 +2990,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2713,7 +3007,7 @@
         <v>-71.007300000000001</v>
       </c>
       <c r="E50" s="17">
-        <v>23</v>
+        <v>59.544262999999994</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>3</v>
@@ -2731,7 +3025,7 @@
         <v>-7.5999999999999998E-2</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2748,7 +3042,7 @@
         <v>-71.200900000000004</v>
       </c>
       <c r="E51" s="17">
-        <v>33</v>
+        <v>85.433073000000007</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>3</v>
@@ -2766,7 +3060,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="M51" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2783,7 +3077,7 @@
         <v>-71.176699999999997</v>
       </c>
       <c r="E52" s="17">
-        <v>44</v>
+        <v>113.91076399999999</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>3</v>
@@ -2801,7 +3095,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2818,7 +3112,7 @@
         <v>-75.325000000000003</v>
       </c>
       <c r="E53" s="17">
-        <v>53</v>
+        <v>137.21069299999999</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>1</v>
@@ -2836,7 +3130,7 @@
         <v>0.43</v>
       </c>
       <c r="M53" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2853,7 +3147,7 @@
         <v>-75.940560000000005</v>
       </c>
       <c r="E54" s="17">
-        <v>7</v>
+        <v>18.122167000000001</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>1</v>
@@ -2871,7 +3165,7 @@
         <v>-0.42</v>
       </c>
       <c r="M54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2888,13 +3182,13 @@
         <v>-76.014439999999993</v>
       </c>
       <c r="E55" s="17">
-        <v>13</v>
+        <v>33.655453000000001</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H55" s="6">
         <v>1.65</v>
@@ -2906,7 +3200,7 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="M55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2923,7 +3217,7 @@
         <v>-82.624099999999999</v>
       </c>
       <c r="E56" s="17">
-        <v>462</v>
+        <v>1196.0630219999998</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>1</v>
@@ -2941,7 +3235,7 @@
         <v>0.36</v>
       </c>
       <c r="M56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2958,7 +3252,7 @@
         <v>-94.783600000000007</v>
       </c>
       <c r="E57" s="17">
-        <v>232</v>
+        <v>600.62039200000004</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>1</v>
@@ -2976,7 +3270,7 @@
         <v>0.17</v>
       </c>
       <c r="M57" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2993,7 +3287,7 @@
         <v>-93.310199999999995</v>
       </c>
       <c r="E58" s="17">
-        <v>28</v>
+        <v>72.488668000000004</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>3</v>
@@ -3011,7 +3305,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
       <c r="M58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3028,7 +3322,7 @@
         <v>-93.908600000000007</v>
       </c>
       <c r="E59" s="17">
-        <v>130</v>
+        <v>336.55453</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>1</v>
@@ -3046,7 +3340,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -3063,7 +3357,7 @@
         <v>-93.301599999999993</v>
       </c>
       <c r="E60" s="17">
-        <v>45</v>
+        <v>116.499645</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>3</v>
@@ -3081,7 +3375,7 @@
         <v>-0.25</v>
       </c>
       <c r="M60" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -3098,7 +3392,7 @@
         <v>-92.966899999999995</v>
       </c>
       <c r="E61" s="17">
-        <v>41</v>
+        <v>106.14412099999998</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>1</v>
@@ -3116,7 +3410,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M61" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3133,7 +3427,7 @@
         <v>-92.0488</v>
       </c>
       <c r="E62" s="17">
-        <v>30</v>
+        <v>77.666429999999991</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>0</v>
@@ -3151,7 +3445,7 @@
         <v>0.01</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -3168,7 +3462,7 @@
         <v>-90.763999999999996</v>
       </c>
       <c r="E63" s="17">
-        <v>495</v>
+        <v>1281.496095</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>0</v>
@@ -3186,7 +3480,7 @@
         <v>0.09</v>
       </c>
       <c r="M63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3203,7 +3497,7 @@
         <v>-91.457599999999999</v>
       </c>
       <c r="E64" s="17">
-        <v>305</v>
+        <v>789.60870499999999</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>0</v>
@@ -3221,7 +3515,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="M64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3238,7 +3532,7 @@
         <v>-110.002</v>
       </c>
       <c r="E65" s="17">
-        <v>28</v>
+        <v>72.488668000000004</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>0</v>
@@ -3256,7 +3550,7 @@
         <v>-0.13</v>
       </c>
       <c r="M65" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3273,7 +3567,7 @@
         <v>-77.228300000000004</v>
       </c>
       <c r="E66" s="17">
-        <v>42</v>
+        <v>108.733002</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>2</v>
@@ -3291,7 +3585,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="M66" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3308,7 +3602,7 @@
         <v>-76.746600000000001</v>
       </c>
       <c r="E67" s="17">
-        <v>22</v>
+        <v>56.955381999999993</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>0</v>
@@ -3326,7 +3620,7 @@
         <v>0.4</v>
       </c>
       <c r="M67" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3343,7 +3637,7 @@
         <v>-77.7941</v>
       </c>
       <c r="E68" s="17">
-        <v>59</v>
+        <v>152.743979</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>2</v>
@@ -3361,7 +3655,7 @@
         <v>0.12</v>
       </c>
       <c r="M68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3378,7 +3672,7 @@
         <v>-97.500399999999999</v>
       </c>
       <c r="E69" s="17">
-        <v>254</v>
+        <v>657.57577399999991</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>1</v>
@@ -3396,7 +3690,7 @@
         <v>0.24</v>
       </c>
       <c r="M69" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3413,7 +3707,7 @@
         <v>-98.416700000000006</v>
       </c>
       <c r="E70" s="17">
-        <v>140</v>
+        <v>362.44333999999998</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>1</v>
@@ -3431,7 +3725,7 @@
         <v>0.22</v>
       </c>
       <c r="M70" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3448,7 +3742,7 @@
         <v>-100.52500000000001</v>
       </c>
       <c r="E71" s="17">
-        <v>28</v>
+        <v>72.488668000000004</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>0</v>
@@ -3466,7 +3760,7 @@
         <v>0.74</v>
       </c>
       <c r="M71" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3483,7 +3777,7 @@
         <v>-97.282300000000006</v>
       </c>
       <c r="E72" s="17">
-        <v>294</v>
+        <v>761.13101399999994</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>1</v>
@@ -3501,7 +3795,7 @@
         <v>0.04</v>
       </c>
       <c r="M72" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3518,7 +3812,7 @@
         <v>-96.5411</v>
       </c>
       <c r="E73" s="17">
-        <v>368</v>
+        <v>952.7082079999999</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>1</v>
@@ -3536,7 +3830,7 @@
         <v>0.16</v>
       </c>
       <c r="M73" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3553,7 +3847,7 @@
         <v>-71.630600000000001</v>
       </c>
       <c r="E74" s="17">
-        <v>88</v>
+        <v>227.82152799999997</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>0</v>
@@ -3571,7 +3865,7 @@
         <v>1.14E-2</v>
       </c>
       <c r="M74" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3588,7 +3882,7 @@
         <v>-75.021600000000007</v>
       </c>
       <c r="E75" s="17">
-        <v>18</v>
+        <v>46.599857999999998</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>3</v>
@@ -3606,7 +3900,7 @@
         <v>0.17</v>
       </c>
       <c r="M75" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3623,7 +3917,7 @@
         <v>-75.258799999999994</v>
       </c>
       <c r="E76" s="17">
-        <v>26</v>
+        <v>67.310906000000003</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>2</v>
@@ -3641,7 +3935,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
       <c r="M76" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -3658,7 +3952,7 @@
         <v>-74.091300000000004</v>
       </c>
       <c r="E77" s="17">
-        <v>22</v>
+        <v>56.955381999999993</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>3</v>
@@ -3676,7 +3970,7 @@
         <v>-0.11</v>
       </c>
       <c r="M77" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3693,7 +3987,7 @@
         <v>-74.8279</v>
       </c>
       <c r="E78" s="17">
-        <v>25</v>
+        <v>64.722025000000002</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>2</v>
@@ -3711,7 +4005,7 @@
         <v>0.37</v>
       </c>
       <c r="M78" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3728,7 +4022,7 @@
         <v>-74.5077</v>
       </c>
       <c r="E79" s="17">
-        <v>49</v>
+        <v>126.85516899999999</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>3</v>
@@ -3746,7 +4040,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
       <c r="M79" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -3763,7 +4057,7 @@
         <v>-74.950999999999993</v>
       </c>
       <c r="E80" s="17">
-        <v>15</v>
+        <v>38.833214999999996</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>3</v>
@@ -3781,7 +4075,7 @@
         <v>-0.42</v>
       </c>
       <c r="M80" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3798,7 +4092,7 @@
         <v>-73.857100000000003</v>
       </c>
       <c r="E81" s="17">
-        <v>15</v>
+        <v>38.833214999999996</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>3</v>
@@ -3816,7 +4110,7 @@
         <v>0.09</v>
       </c>
       <c r="M81" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -3833,7 +4127,7 @@
         <v>-74.380099999999999</v>
       </c>
       <c r="E82" s="17">
-        <v>65</v>
+        <v>168.277265</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>0</v>
@@ -3851,7 +4145,7 @@
         <v>0.45</v>
       </c>
       <c r="M82" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -3868,7 +4162,7 @@
         <v>-73.926199999999994</v>
       </c>
       <c r="E83" s="17">
-        <v>19</v>
+        <v>49.188738999999998</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2</v>
@@ -3886,7 +4180,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="M83" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -3903,7 +4197,7 @@
         <v>-78.935000000000002</v>
       </c>
       <c r="E84" s="17">
-        <v>436</v>
+        <v>1128.7521159999999</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2</v>
@@ -3921,7 +4215,7 @@
         <v>-0.11</v>
       </c>
       <c r="M84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3938,7 +4232,7 @@
         <v>-84.266099999999994</v>
       </c>
       <c r="E85" s="17">
-        <v>331</v>
+        <v>856.91961099999992</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>1</v>
@@ -3956,7 +4250,7 @@
         <v>0.43</v>
       </c>
       <c r="M85" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3973,7 +4267,7 @@
         <v>-83.831599999999995</v>
       </c>
       <c r="E86" s="17">
-        <v>310</v>
+        <v>802.55311000000006</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>1</v>
@@ -3991,7 +4285,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M86" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -4008,7 +4302,7 @@
         <v>-84.201899999999995</v>
       </c>
       <c r="E87" s="17">
-        <v>20</v>
+        <v>51.777619999999999</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2</v>
@@ -4026,7 +4320,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="M87" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -4043,7 +4337,7 @@
         <v>-122.628</v>
       </c>
       <c r="E88" s="17">
-        <v>10</v>
+        <v>25.888809999999999</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>0</v>
@@ -4061,7 +4355,7 @@
         <v>0.19</v>
       </c>
       <c r="M88" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -4078,7 +4372,7 @@
         <v>-122.822</v>
       </c>
       <c r="E89" s="17">
-        <v>15</v>
+        <v>38.833214999999996</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>1</v>
@@ -4096,7 +4390,7 @@
         <v>0.12</v>
       </c>
       <c r="M89" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -4113,13 +4407,13 @@
         <v>-123.07</v>
       </c>
       <c r="E90" s="17">
-        <v>34</v>
+        <v>88.021954000000008</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H90" s="6">
         <v>0.7</v>
@@ -4131,7 +4425,7 @@
         <v>0.39</v>
       </c>
       <c r="M90" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -4148,7 +4442,7 @@
         <v>-122.755</v>
       </c>
       <c r="E91" s="17">
-        <v>31</v>
+        <v>80.255310999999992</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>3</v>
@@ -4166,7 +4460,7 @@
         <v>0.13</v>
       </c>
       <c r="M91" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -4183,13 +4477,13 @@
         <v>-79.338099999999997</v>
       </c>
       <c r="E92" s="17">
-        <v>20</v>
+        <v>51.777619999999999</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H92" s="6">
         <v>0.28000000000000003</v>
@@ -4201,7 +4495,7 @@
         <v>0.13</v>
       </c>
       <c r="M92" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -4218,7 +4512,7 @@
         <v>-79.236400000000003</v>
       </c>
       <c r="E93" s="17">
-        <v>33</v>
+        <v>85.433073000000007</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2</v>
@@ -4236,7 +4530,7 @@
         <v>0.27</v>
       </c>
       <c r="M93" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -4253,7 +4547,7 @@
         <v>-78.920599999999993</v>
       </c>
       <c r="E94" s="17">
-        <v>452</v>
+        <v>1170.1742120000001</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>0</v>
@@ -4271,7 +4565,7 @@
         <v>0.11</v>
       </c>
       <c r="M94" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -4288,7 +4582,7 @@
         <v>-79.861199999999997</v>
       </c>
       <c r="E95" s="17">
-        <v>27</v>
+        <v>69.899786999999989</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2</v>
@@ -4306,7 +4600,7 @@
         <v>0.53</v>
       </c>
       <c r="M95" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -4323,7 +4617,7 @@
         <v>-79.970600000000005</v>
       </c>
       <c r="E96" s="17">
-        <v>227</v>
+        <v>587.67598699999996</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>0</v>
@@ -4341,7 +4635,7 @@
         <v>0.17</v>
       </c>
       <c r="M96" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -4358,7 +4652,7 @@
         <v>-75.626900000000006</v>
       </c>
       <c r="E97" s="17">
-        <v>52</v>
+        <v>134.62181200000001</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>1</v>
@@ -4376,7 +4670,7 @@
         <v>0.23</v>
       </c>
       <c r="M97" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -4393,7 +4687,7 @@
         <v>-75.119600000000005</v>
       </c>
       <c r="E98" s="17">
-        <v>28</v>
+        <v>72.488668000000004</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2</v>
@@ -4411,7 +4705,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="M98" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -4428,7 +4722,7 @@
         <v>-76.171599999999998</v>
       </c>
       <c r="E99" s="17">
-        <v>69</v>
+        <v>178.632789</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>1</v>
@@ -4446,7 +4740,7 @@
         <v>-7.8E-2</v>
       </c>
       <c r="M99" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -4463,7 +4757,7 @@
         <v>-75.601299999999995</v>
       </c>
       <c r="E100" s="17">
-        <v>59</v>
+        <v>152.743979</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2</v>
@@ -4481,7 +4775,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="M100" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -4498,7 +4792,7 @@
         <v>-76.691400000000002</v>
       </c>
       <c r="E101" s="17">
-        <v>45</v>
+        <v>116.499645</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>1</v>
@@ -4516,7 +4810,7 @@
         <v>0.26</v>
       </c>
       <c r="M101" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -4533,7 +4827,7 @@
         <v>-78.598399999999998</v>
       </c>
       <c r="E102" s="17">
-        <v>17</v>
+        <v>44.010977000000004</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>0</v>
@@ -4551,7 +4845,7 @@
         <v>0.25</v>
       </c>
       <c r="M102" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -4568,7 +4862,7 @@
         <v>-71.470100000000002</v>
       </c>
       <c r="E103" s="17">
-        <v>431</v>
+        <v>1115.8077110000002</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>2</v>
@@ -4586,7 +4880,7 @@
         <v>-0.38</v>
       </c>
       <c r="M103" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -4603,7 +4897,7 @@
         <v>-82.250699999999995</v>
       </c>
       <c r="E104" s="17">
-        <v>14</v>
+        <v>36.244334000000002</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>3</v>
@@ -4621,7 +4915,7 @@
         <v>-8.6999999999999994E-2</v>
       </c>
       <c r="M104" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -4638,7 +4932,7 @@
         <v>-81.604799999999997</v>
       </c>
       <c r="E105" s="17">
-        <v>63</v>
+        <v>163.099503</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>0</v>
@@ -4656,7 +4950,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
       <c r="M105" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -4673,7 +4967,7 @@
         <v>-80.699799999999996</v>
       </c>
       <c r="E106" s="17">
-        <v>24</v>
+        <v>62.133144000000001</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2</v>
@@ -4691,7 +4985,7 @@
         <v>0.11</v>
       </c>
       <c r="M106" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -4708,7 +5002,7 @@
         <v>-82.650400000000005</v>
       </c>
       <c r="E107" s="17">
-        <v>79</v>
+        <v>204.52159900000001</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>1</v>
@@ -4726,7 +5020,7 @@
         <v>0.23</v>
       </c>
       <c r="M107" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -4743,7 +5037,7 @@
         <v>-86.623099999999994</v>
       </c>
       <c r="E108" s="17">
-        <v>79</v>
+        <v>204.52159900000001</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>2</v>
@@ -4761,7 +5055,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M108" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -4778,7 +5072,7 @@
         <v>-86.595799999999997</v>
       </c>
       <c r="E109" s="17">
-        <v>74</v>
+        <v>191.57719399999999</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>1</v>
@@ -4796,7 +5090,7 @@
         <v>0.19</v>
       </c>
       <c r="M109" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -4813,7 +5107,7 @@
         <v>-98.122500000000002</v>
       </c>
       <c r="E110" s="17">
-        <v>132</v>
+        <v>341.73229200000003</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>2</v>
@@ -4831,7 +5125,7 @@
         <v>0.12</v>
       </c>
       <c r="M110" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -4848,7 +5142,7 @@
         <v>-98.088899999999995</v>
       </c>
       <c r="E111" s="17">
-        <v>357</v>
+        <v>924.23051699999996</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>0</v>
@@ -4866,7 +5160,7 @@
         <v>0.33</v>
       </c>
       <c r="M111" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -4883,7 +5177,7 @@
         <v>-98.412800000000004</v>
       </c>
       <c r="E112" s="17">
-        <v>195</v>
+        <v>504.831795</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>3</v>
@@ -4901,7 +5195,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M112" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -4918,7 +5212,7 @@
         <v>-99.704800000000006</v>
       </c>
       <c r="E113" s="17">
-        <v>397</v>
+        <v>1027.7857570000001</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>0</v>
@@ -4936,7 +5230,7 @@
         <v>0.66</v>
       </c>
       <c r="M113" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -4953,7 +5247,7 @@
         <v>-97.694800000000001</v>
       </c>
       <c r="E114" s="17">
-        <v>334</v>
+        <v>864.68625399999996</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>2</v>
@@ -4971,7 +5265,7 @@
         <v>0.12</v>
       </c>
       <c r="M114" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -4988,7 +5282,7 @@
         <v>-97.179500000000004</v>
       </c>
       <c r="E115" s="17">
-        <v>295</v>
+        <v>763.71989499999995</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>2</v>
@@ -5006,7 +5300,7 @@
         <v>0.31</v>
       </c>
       <c r="M115" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -5023,7 +5317,7 @@
         <v>-96.756389999999996</v>
       </c>
       <c r="E116" s="17">
-        <v>67</v>
+        <v>173.455027</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>2</v>
@@ -5041,7 +5335,7 @@
         <v>-0.25</v>
       </c>
       <c r="M116" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -5058,7 +5352,7 @@
         <v>-96.608900000000006</v>
       </c>
       <c r="E117" s="17">
-        <v>168</v>
+        <v>434.932008</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>1</v>
@@ -5076,7 +5370,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="M117" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -5093,7 +5387,7 @@
         <v>-95.777699999999996</v>
       </c>
       <c r="E118" s="17">
-        <v>331</v>
+        <v>856.91961099999992</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>1</v>
@@ -5111,7 +5405,7 @@
         <v>0.17</v>
       </c>
       <c r="M118" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -5128,7 +5422,7 @@
         <v>-94.722999999999999</v>
       </c>
       <c r="E119" s="17">
-        <v>107</v>
+        <v>277.010267</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>0</v>
@@ -5146,7 +5440,7 @@
         <v>-0.17</v>
       </c>
       <c r="M119" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -5163,7 +5457,7 @@
         <v>-111.854</v>
       </c>
       <c r="E120" s="17">
-        <v>223</v>
+        <v>577.32046300000002</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>1</v>
@@ -5181,7 +5475,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="M120" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -5198,7 +5492,7 @@
         <v>-111.834</v>
       </c>
       <c r="E121" s="17">
-        <v>36</v>
+        <v>93.199715999999995</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>3</v>
@@ -5216,7 +5510,7 @@
         <v>-0.31</v>
       </c>
       <c r="M121" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -5233,7 +5527,7 @@
         <v>-111.902</v>
       </c>
       <c r="E122" s="17">
-        <v>45</v>
+        <v>116.499645</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>3</v>
@@ -5251,7 +5545,7 @@
         <v>-0.23</v>
       </c>
       <c r="M122" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -5268,7 +5562,7 @@
         <v>-111.806</v>
       </c>
       <c r="E123" s="17">
-        <v>7</v>
+        <v>18.122167000000001</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>0</v>
@@ -5286,7 +5580,7 @@
         <v>0.08</v>
       </c>
       <c r="M123" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -5303,7 +5597,7 @@
         <v>-80.886700000000005</v>
       </c>
       <c r="E124" s="17">
-        <v>258</v>
+        <v>667.93129799999997</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>2</v>
@@ -5321,7 +5615,7 @@
         <v>0.16</v>
       </c>
       <c r="M124" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -5338,7 +5632,7 @@
         <v>-80.556700000000006</v>
       </c>
       <c r="E125" s="17">
-        <v>307</v>
+        <v>794.78646700000002</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>2</v>
@@ -5356,7 +5650,7 @@
         <v>0.48</v>
       </c>
       <c r="M125" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -5373,7 +5667,7 @@
         <v>-78.960899999999995</v>
       </c>
       <c r="E126" s="17">
-        <v>14</v>
+        <v>36.244334000000002</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>1</v>
@@ -5391,7 +5685,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M126" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -5408,7 +5702,7 @@
         <v>-77.576400000000007</v>
       </c>
       <c r="E127" s="17">
-        <v>90</v>
+        <v>232.99929</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>1</v>
@@ -5426,7 +5720,7 @@
         <v>0.27</v>
       </c>
       <c r="M127" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -5443,7 +5737,7 @@
         <v>-77.228300000000004</v>
       </c>
       <c r="E128" s="17">
-        <v>23</v>
+        <v>59.544262999999994</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>3</v>
@@ -5461,7 +5755,7 @@
         <v>-0.04</v>
       </c>
       <c r="M128" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -5478,7 +5772,7 @@
         <v>-82.406000000000006</v>
       </c>
       <c r="E129" s="17">
-        <v>100</v>
+        <v>258.88810000000001</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>2</v>
@@ -5496,7 +5790,7 @@
         <v>0.11</v>
       </c>
       <c r="M129" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -5513,7 +5807,7 @@
         <v>-82.565700000000007</v>
       </c>
       <c r="E130" s="17">
-        <v>107</v>
+        <v>277.010267</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>2</v>
@@ -5531,7 +5825,7 @@
         <v>0.24</v>
       </c>
       <c r="M130" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -5548,7 +5842,7 @@
         <v>-72.039000000000001</v>
       </c>
       <c r="E131" s="17">
-        <v>43</v>
+        <v>111.321883</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>0</v>
@@ -5566,7 +5860,7 @@
         <v>0.36</v>
       </c>
       <c r="M131" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -5583,7 +5877,7 @@
         <v>-118.369</v>
       </c>
       <c r="E132" s="17">
-        <v>459</v>
+        <v>1188.2963789999999</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>1</v>
@@ -5601,7 +5895,7 @@
         <v>0.21</v>
       </c>
       <c r="M132" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -5618,7 +5912,7 @@
         <v>-123.33</v>
       </c>
       <c r="E133" s="17">
-        <v>57</v>
+        <v>147.56621699999999</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>0</v>
@@ -5636,7 +5930,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M133" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -5653,7 +5947,7 @@
         <v>-123.17700000000001</v>
       </c>
       <c r="E134" s="17">
-        <v>131</v>
+        <v>339.14341100000001</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>0</v>
@@ -5671,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -5688,7 +5982,7 @@
         <v>-122.06</v>
       </c>
       <c r="E135" s="17">
-        <v>27</v>
+        <v>69.899786999999989</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>2</v>
@@ -5706,7 +6000,7 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="M135" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -5723,7 +6017,7 @@
         <v>-122.16500000000001</v>
       </c>
       <c r="E136" s="17">
-        <v>67</v>
+        <v>173.455027</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>3</v>
@@ -5741,7 +6035,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="M136" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -5758,7 +6052,7 @@
         <v>-122.233</v>
       </c>
       <c r="E137" s="17">
-        <v>20</v>
+        <v>51.777619999999999</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>3</v>
@@ -5776,7 +6070,7 @@
         <v>-0.08</v>
       </c>
       <c r="M137" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -5793,7 +6087,7 @@
         <v>-122.259</v>
       </c>
       <c r="E138" s="17">
-        <v>461</v>
+        <v>1193.4741409999999</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>2</v>
@@ -5811,7 +6105,7 @@
         <v>0.11</v>
       </c>
       <c r="M138" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -5828,7 +6122,7 @@
         <v>-122.276</v>
       </c>
       <c r="E139" s="17">
-        <v>11</v>
+        <v>28.477690999999997</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>3</v>
@@ -5846,7 +6140,7 @@
         <v>-0.12</v>
       </c>
       <c r="M139" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -5863,7 +6157,7 @@
         <v>-122.496</v>
       </c>
       <c r="E140" s="17">
-        <v>38</v>
+        <v>98.377477999999996</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>1</v>
@@ -5881,7 +6175,7 @@
         <v>0.11</v>
       </c>
       <c r="M140" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -5898,7 +6192,7 @@
         <v>-88.463200000000001</v>
       </c>
       <c r="E141" s="17">
-        <v>140</v>
+        <v>362.44333999999998</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>0</v>
@@ -5916,7 +6210,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="M141" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -5933,7 +6227,7 @@
         <v>-88.218999999999994</v>
       </c>
       <c r="E142" s="17">
-        <v>95</v>
+        <v>245.94369499999999</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>1</v>
@@ -5951,7 +6245,7 @@
         <v>0.34</v>
       </c>
       <c r="M142" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
@@ -5968,7 +6262,7 @@
         <v>-87.972300000000004</v>
       </c>
       <c r="E143" s="17">
-        <v>10</v>
+        <v>25.888809999999999</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>3</v>
@@ -5986,7 +6280,7 @@
         <v>0.34</v>
       </c>
       <c r="M143" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -6003,7 +6297,7 @@
         <v>-81.110900000000001</v>
       </c>
       <c r="E144" s="17">
-        <v>200</v>
+        <v>517.77620000000002</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>2</v>
@@ -6021,7 +6315,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="M144" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -6038,7 +6332,7 @@
         <v>-81.023200000000003</v>
       </c>
       <c r="E145" s="17">
-        <v>40</v>
+        <v>103.55524</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>0</v>
@@ -6056,7 +6350,7 @@
         <v>0.08</v>
       </c>
       <c r="M145" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -6073,7 +6367,7 @@
         <v>-78.956100000000006</v>
       </c>
       <c r="E146" s="17">
-        <v>277</v>
+        <v>717.12003699999991</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>0</v>
@@ -6091,7 +6385,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="M146" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -6108,13 +6402,13 @@
         <v>-78.598299999999995</v>
       </c>
       <c r="E147" s="17">
-        <v>11</v>
+        <v>28.477690999999997</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H147" s="6">
         <v>0.2</v>
@@ -6126,7 +6420,7 @@
         <v>0.38</v>
       </c>
       <c r="M147" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -6143,7 +6437,7 @@
         <v>-107.30500000000001</v>
       </c>
       <c r="E148" s="17">
-        <v>206</v>
+        <v>533.30948599999999</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>0</v>
@@ -6161,7 +6455,7 @@
         <v>-0.34</v>
       </c>
       <c r="M148" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
@@ -6178,7 +6472,7 @@
         <v>-73.426599999999993</v>
       </c>
       <c r="E149" s="17">
-        <v>33</v>
+        <v>85.433073000000007</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>3</v>
@@ -6196,12 +6490,12 @@
         <v>0.12</v>
       </c>
       <c r="M149" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B150" s="22">
         <v>1648010</v>
@@ -6212,8 +6506,8 @@
       <c r="D150" s="10">
         <v>-76.942099999999996</v>
       </c>
-      <c r="E150" s="10">
-        <v>63.7</v>
+      <c r="E150" s="27">
+        <v>164.91171970000002</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>3</v>
@@ -6237,12 +6531,12 @@
         <v>-4.9000000000000002E-2</v>
       </c>
       <c r="M150" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B151" s="22">
         <v>3336890</v>
@@ -6253,8 +6547,8 @@
       <c r="D151" s="10">
         <v>-88.027500000000003</v>
       </c>
-      <c r="E151" s="10">
-        <v>40.700000000000003</v>
+      <c r="E151" s="27">
+        <v>105.36745670000001</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>2</v>
@@ -6283,7 +6577,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B152" s="22">
         <v>5554300</v>
@@ -6294,8 +6588,8 @@
       <c r="D152" s="14">
         <v>-88.53</v>
       </c>
-      <c r="E152" s="15">
-        <v>67.5</v>
+      <c r="E152" s="27">
+        <v>174.74946750000001</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>1</v>
@@ -6324,7 +6618,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B153" s="22">
         <v>5576195</v>
@@ -6335,8 +6629,8 @@
       <c r="D153" s="11">
         <v>-89.658900000000003</v>
       </c>
-      <c r="E153" s="11">
-        <v>90.4</v>
+      <c r="E153" s="27">
+        <v>234.0348424</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>2</v>
@@ -6365,7 +6659,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B154" s="22">
         <v>3353420</v>
@@ -6376,8 +6670,8 @@
       <c r="D154" s="11">
         <v>-86.361500000000007</v>
       </c>
-      <c r="E154" s="11">
-        <v>4.7</v>
+      <c r="E154" s="27">
+        <v>12.167740700000001</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>2</v>
@@ -6406,7 +6700,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B155" s="22">
         <v>3353200</v>
@@ -6417,8 +6711,8 @@
       <c r="D155" s="11">
         <v>-85.926900000000003</v>
       </c>
-      <c r="E155" s="11">
-        <v>106</v>
+      <c r="E155" s="27">
+        <v>274.42138599999998</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>2</v>
@@ -6447,7 +6741,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B156" s="22">
         <v>3353415</v>
@@ -6458,8 +6752,8 @@
       <c r="D156" s="11">
         <v>-86.355400000000003</v>
       </c>
-      <c r="E156" s="11">
-        <v>3.39</v>
+      <c r="E156" s="27">
+        <v>8.776306589999999</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>2</v>
@@ -6488,7 +6782,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B157" s="22">
         <v>6892513</v>
@@ -6499,8 +6793,8 @@
       <c r="D157" s="11">
         <v>-94.8172</v>
       </c>
-      <c r="E157" s="11">
-        <v>58.1</v>
+      <c r="E157" s="27">
+        <v>150.41398609999999</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>2</v>
@@ -6529,7 +6823,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B158" s="22">
         <v>1493112</v>
@@ -6540,8 +6834,8 @@
       <c r="D158" s="11">
         <v>-75.940100000000001</v>
       </c>
-      <c r="E158" s="11">
-        <v>6.12</v>
+      <c r="E158" s="27">
+        <v>15.84395172</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>1</v>
@@ -6570,7 +6864,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B159" s="22">
         <v>1645762</v>
@@ -6581,8 +6875,8 @@
       <c r="D159" s="11">
         <v>-77.505200000000002</v>
       </c>
-      <c r="E159" s="11">
-        <v>2.71</v>
+      <c r="E159" s="27">
+        <v>7.0158675099999996</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>3</v>
@@ -6611,7 +6905,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B160" s="22">
         <v>1646000</v>
@@ -6622,8 +6916,8 @@
       <c r="D160" s="11">
         <v>-77.246099999999998</v>
       </c>
-      <c r="E160" s="11">
-        <v>57.8</v>
+      <c r="E160" s="27">
+        <v>149.6373218</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>3</v>
@@ -6652,7 +6946,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B161" s="22">
         <v>1654000</v>
@@ -6663,8 +6957,8 @@
       <c r="D161" s="11">
         <v>-77.2286</v>
       </c>
-      <c r="E161" s="11">
-        <v>23.9</v>
+      <c r="E161" s="27">
+        <v>61.874255899999987</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>3</v>
@@ -6693,7 +6987,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B162" s="22">
         <v>1632900</v>
@@ -6704,8 +6998,8 @@
       <c r="D162" s="11">
         <v>-78.643100000000004</v>
       </c>
-      <c r="E162" s="11">
-        <v>93.6</v>
+      <c r="E162" s="27">
+        <v>242.31926159999998</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>2</v>
@@ -6734,7 +7028,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B163" s="11">
         <v>12212050</v>
@@ -6745,8 +7039,8 @@
       <c r="D163" s="11">
         <v>-122.4778</v>
       </c>
-      <c r="E163" s="11">
-        <v>37.799999999999997</v>
+      <c r="E163" s="27">
+        <v>97.859701799999982</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>2</v>
@@ -6775,7 +7069,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B164" s="22">
         <v>4080798</v>
@@ -6786,8 +7080,8 @@
       <c r="D164" s="11">
         <v>-89.337800000000001</v>
       </c>
-      <c r="E164" s="11">
-        <v>40</v>
+      <c r="E164" s="27">
+        <v>103.55524</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>2</v>
@@ -6816,7 +7110,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B165" s="22">
         <v>4085108</v>
@@ -6827,8 +7121,8 @@
       <c r="D165" s="11">
         <v>-88.092200000000005</v>
       </c>
-      <c r="E165" s="11">
-        <v>44.8</v>
+      <c r="E165" s="27">
+        <v>115.98186879999999</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>2</v>
@@ -6857,7 +7151,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B166" s="22">
         <v>3512000</v>
@@ -6868,8 +7162,8 @@
       <c r="D166" s="11">
         <v>-83.3536</v>
       </c>
-      <c r="E166" s="11">
-        <v>184</v>
+      <c r="E166" s="27">
+        <v>476.35410399999995</v>
       </c>
       <c r="F166" s="11" t="s">
         <v>0</v>
@@ -6898,7 +7192,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B167" s="22">
         <v>5455100</v>
@@ -6909,8 +7203,8 @@
       <c r="D167" s="11">
         <v>-91.615600000000001</v>
       </c>
-      <c r="E167" s="11">
-        <v>201</v>
+      <c r="E167" s="27">
+        <v>520.36508100000003</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>2</v>
@@ -6939,7 +7233,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B168" s="22">
         <v>5576100</v>
@@ -6950,8 +7244,8 @@
       <c r="D168" s="11">
         <v>-89.702399999999997</v>
       </c>
-      <c r="E168" s="11">
-        <v>129</v>
+      <c r="E168" s="27">
+        <v>333.96564899999998</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>2</v>
@@ -6980,7 +7274,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B169" s="22">
         <v>2322700</v>
@@ -6991,8 +7285,8 @@
       <c r="D169" s="11">
         <v>-82.786100000000005</v>
       </c>
-      <c r="E169" s="11">
-        <v>213</v>
+      <c r="E169" s="27">
+        <v>551.43165299999998</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>2</v>
@@ -7021,7 +7315,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B170" s="22">
         <v>8195000</v>
@@ -7032,8 +7326,8 @@
       <c r="D170" s="11">
         <v>-99.704400000000007</v>
       </c>
-      <c r="E170" s="11">
-        <v>389</v>
+      <c r="E170" s="27">
+        <v>1007.0747089999999</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>0</v>
@@ -7062,7 +7356,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B171" s="22">
         <v>5457000</v>
@@ -7073,8 +7367,8 @@
       <c r="D171" s="11">
         <v>-92.974400000000003</v>
       </c>
-      <c r="E171" s="11">
-        <v>399</v>
+      <c r="E171" s="27">
+        <v>1032.9635189999999</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>2</v>
@@ -7103,7 +7397,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B172" s="22">
         <v>5483600</v>
@@ -7114,8 +7408,8 @@
       <c r="D172" s="11">
         <v>-94.370800000000003</v>
       </c>
-      <c r="E172" s="11">
-        <v>440</v>
+      <c r="E172" s="27">
+        <v>1139.1076399999999</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>2</v>
@@ -7144,7 +7438,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B173" s="22">
         <v>5418400</v>
@@ -7155,8 +7449,8 @@
       <c r="D173" s="11">
         <v>-90.729299999999995</v>
       </c>
-      <c r="E173" s="11">
-        <v>505</v>
+      <c r="E173" s="27">
+        <v>1307.3849049999999</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>1</v>
@@ -7185,7 +7479,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B174" s="22">
         <v>5524500</v>
@@ -7196,8 +7490,8 @@
       <c r="D174" s="11">
         <v>-87.306700000000006</v>
       </c>
-      <c r="E174" s="11">
-        <v>449</v>
+      <c r="E174" s="27">
+        <v>1162.407569</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>1</v>
@@ -7226,7 +7520,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B175" s="22">
         <v>3275500</v>
@@ -7237,8 +7531,8 @@
       <c r="D175" s="11">
         <v>-84.907200000000003</v>
       </c>
-      <c r="E175" s="11">
-        <v>121</v>
+      <c r="E175" s="27">
+        <v>313.25460099999998</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>2</v>
@@ -7267,7 +7561,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B176" s="22">
         <v>3276000</v>
@@ -7278,8 +7572,8 @@
       <c r="D176" s="11">
         <v>-85.003299999999996</v>
       </c>
-      <c r="E176" s="11">
-        <v>380</v>
+      <c r="E176" s="27">
+        <v>983.77477999999996</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>2</v>
@@ -7308,7 +7602,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B177" s="22">
         <v>3340900</v>
@@ -7319,8 +7613,8 @@
       <c r="D177" s="11">
         <v>-87.071299999999994</v>
       </c>
-      <c r="E177" s="11">
-        <v>222</v>
+      <c r="E177" s="27">
+        <v>574.731582</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>2</v>
@@ -7349,7 +7643,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B178" s="22">
         <v>5515500</v>
@@ -7360,8 +7654,8 @@
       <c r="D178" s="11">
         <v>-86.706199999999995</v>
       </c>
-      <c r="E178" s="11">
-        <v>542</v>
+      <c r="E178" s="27">
+        <v>1403.1735019999999</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>2</v>
@@ -7390,7 +7684,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B179" s="22">
         <v>4067958</v>
@@ -7401,8 +7695,8 @@
       <c r="D179" s="11">
         <v>-88.305000000000007</v>
       </c>
-      <c r="E179" s="11">
-        <v>447</v>
+      <c r="E179" s="27">
+        <v>1157.2298069999999</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>2</v>
@@ -7431,7 +7725,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B180" s="22">
         <v>2292900</v>
@@ -7442,8 +7736,8 @@
       <c r="D180" s="11">
         <v>-81.693299999999994</v>
       </c>
-      <c r="E180" s="23">
-        <v>2062.0703175868284</v>
+      <c r="E180" s="27">
+        <v>5338.4546658645058</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>2</v>
@@ -7472,7 +7766,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B181" s="22">
         <v>2313098</v>
@@ -7483,8 +7777,8 @@
       <c r="D181" s="11">
         <v>-82.426599999999993</v>
       </c>
-      <c r="E181" s="23">
-        <v>757.79137430590436</v>
+      <c r="E181" s="27">
+        <v>1961.831690904444</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>2</v>
@@ -7513,7 +7807,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B182" s="22">
         <v>2313100</v>
@@ -7524,8 +7818,8 @@
       <c r="D182" s="11">
         <v>-82.447800000000001</v>
       </c>
-      <c r="E182" s="23">
-        <v>765.92240713757985</v>
+      <c r="E182" s="27">
+        <v>1982.8819673127448</v>
       </c>
       <c r="F182" s="10" t="s">
         <v>2</v>
@@ -7554,7 +7848,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B183" s="22">
         <v>2326526</v>
@@ -7565,8 +7859,8 @@
       <c r="D183" s="11">
         <v>-83.979699999999994</v>
       </c>
-      <c r="E183" s="23">
-        <v>560.55133046019125</v>
+      <c r="E183" s="27">
+        <v>1451.2006889531103</v>
       </c>
       <c r="F183" s="11" t="s">
         <v>0</v>
@@ -7595,7 +7889,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B184" s="22">
         <v>3339000</v>
@@ -7606,8 +7900,8 @@
       <c r="D184" s="11">
         <v>-87.597200000000001</v>
       </c>
-      <c r="E184" s="11">
-        <v>1290</v>
+      <c r="E184" s="27">
+        <v>3339.6564900000003</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>2</v>
@@ -7636,7 +7930,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B185" s="22">
         <v>3346500</v>
@@ -7647,8 +7941,8 @@
       <c r="D185" s="11">
         <v>-87.664400000000001</v>
       </c>
-      <c r="E185" s="11">
-        <v>2333</v>
+      <c r="E185" s="27">
+        <v>6039.8593730000002</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>2</v>
@@ -7677,7 +7971,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B186" s="22">
         <v>5446500</v>
@@ -7688,8 +7982,8 @@
       <c r="D186" s="11">
         <v>-90.185299999999998</v>
       </c>
-      <c r="E186" s="11">
-        <v>9549</v>
+      <c r="E186" s="27">
+        <v>24721.224668999999</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>1</v>
@@ -7718,7 +8012,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B187" s="22">
         <v>5447500</v>
@@ -7729,8 +8023,8 @@
       <c r="D187" s="11">
         <v>-90.157499999999999</v>
       </c>
-      <c r="E187" s="11">
-        <v>1003</v>
+      <c r="E187" s="27">
+        <v>2596.6476429999998</v>
       </c>
       <c r="F187" s="10" t="s">
         <v>2</v>
@@ -7759,7 +8053,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B188" s="22">
         <v>5537980</v>
@@ -7770,8 +8064,8 @@
       <c r="D188" s="11">
         <v>-88.082499999999996</v>
       </c>
-      <c r="E188" s="11">
-        <v>1502</v>
+      <c r="E188" s="27">
+        <v>3888.4992619999998</v>
       </c>
       <c r="F188" s="11" t="s">
         <v>3</v>
@@ -7800,7 +8094,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B189" s="22">
         <v>5595000</v>
@@ -7811,8 +8105,8 @@
       <c r="D189" s="11">
         <v>-89.888599999999997</v>
       </c>
-      <c r="E189" s="11">
-        <v>5189</v>
+      <c r="E189" s="27">
+        <v>13433.703509000001</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>1</v>
@@ -7841,7 +8135,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B190" s="22">
         <v>5599490</v>
@@ -7852,8 +8146,8 @@
       <c r="D190" s="11">
         <v>-89.327799999999996</v>
       </c>
-      <c r="E190" s="11">
-        <v>2159</v>
+      <c r="E190" s="27">
+        <v>5589.3940790000006</v>
       </c>
       <c r="F190" s="10" t="s">
         <v>2</v>
@@ -7882,7 +8176,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B191" s="22">
         <v>3374100</v>
@@ -7893,8 +8187,8 @@
       <c r="D191" s="14">
         <v>-87.55</v>
       </c>
-      <c r="E191" s="23">
-        <v>11305</v>
+      <c r="E191" s="27">
+        <v>29267.299704999998</v>
       </c>
       <c r="F191" s="10" t="s">
         <v>2</v>
@@ -7923,7 +8217,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B192" s="22">
         <v>5518000</v>
@@ -7934,8 +8228,8 @@
       <c r="D192" s="11">
         <v>-87.340299999999999</v>
       </c>
-      <c r="E192" s="11">
-        <v>1779</v>
+      <c r="E192" s="27">
+        <v>4605.619299</v>
       </c>
       <c r="F192" s="10" t="s">
         <v>1</v>
@@ -7964,7 +8258,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B193" s="22">
         <v>5517500</v>
@@ -7975,8 +8269,8 @@
       <c r="D193" s="11">
         <v>-86.968299999999999</v>
       </c>
-      <c r="E193" s="11">
-        <v>1352</v>
+      <c r="E193" s="27">
+        <v>3500.1671120000001</v>
       </c>
       <c r="F193" s="10" t="s">
         <v>2</v>
@@ -8005,7 +8299,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B194" s="22">
         <v>5412500</v>
@@ -8016,8 +8310,8 @@
       <c r="D194" s="11">
         <v>-91.261700000000005</v>
       </c>
-      <c r="E194" s="11">
-        <v>1545</v>
+      <c r="E194" s="27">
+        <v>3999.8211450000003</v>
       </c>
       <c r="F194" s="10" t="s">
         <v>2</v>
@@ -8046,7 +8340,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B195" s="22">
         <v>5418720</v>
@@ -8057,8 +8351,8 @@
       <c r="D195" s="11">
         <v>-90.335099999999997</v>
       </c>
-      <c r="E195" s="11">
-        <v>1869</v>
+      <c r="E195" s="27">
+        <v>4838.6185889999997</v>
       </c>
       <c r="F195" s="10" t="s">
         <v>1</v>
@@ -8087,7 +8381,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B196" s="22">
         <v>5464420</v>
@@ -8098,8 +8392,8 @@
       <c r="D196" s="14">
         <v>-91.784999999999997</v>
       </c>
-      <c r="E196" s="23">
-        <v>6342</v>
+      <c r="E196" s="27">
+        <v>16418.683302000001</v>
       </c>
       <c r="F196" s="10" t="s">
         <v>1</v>
@@ -8128,7 +8422,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B197" s="22">
         <v>5481000</v>
@@ -8139,8 +8433,8 @@
       <c r="D197" s="11">
         <v>-93.805599999999998</v>
       </c>
-      <c r="E197" s="11">
-        <v>844</v>
+      <c r="E197" s="27">
+        <v>2185.0155640000003</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>1</v>
@@ -8169,7 +8463,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B198" s="22">
         <v>5482000</v>
@@ -8180,8 +8474,8 @@
       <c r="D198" s="11">
         <v>-93.620800000000003</v>
       </c>
-      <c r="E198" s="11">
-        <v>6245</v>
+      <c r="E198" s="27">
+        <v>16167.561845</v>
       </c>
       <c r="F198" s="10" t="s">
         <v>1</v>
@@ -8210,7 +8504,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B199" s="22">
         <v>5482300</v>
@@ -8221,8 +8515,8 @@
       <c r="D199" s="11">
         <v>-94.990300000000005</v>
       </c>
-      <c r="E199" s="11">
-        <v>700</v>
+      <c r="E199" s="27">
+        <v>1812.2166999999999</v>
       </c>
       <c r="F199" s="10" t="s">
         <v>2</v>
@@ -8251,7 +8545,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B200" s="22">
         <v>5482500</v>
@@ -8262,8 +8556,8 @@
       <c r="D200" s="11">
         <v>-94.3767</v>
       </c>
-      <c r="E200" s="11">
-        <v>1619</v>
+      <c r="E200" s="27">
+        <v>4191.3983390000003</v>
       </c>
       <c r="F200" s="10" t="s">
         <v>2</v>
@@ -8292,7 +8586,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B201" s="22">
         <v>5484000</v>
@@ -8303,8 +8597,8 @@
       <c r="D201" s="11">
         <v>-94.1511</v>
       </c>
-      <c r="E201" s="11">
-        <v>994</v>
+      <c r="E201" s="27">
+        <v>2573.347714</v>
       </c>
       <c r="F201" s="10" t="s">
         <v>2</v>
@@ -8333,7 +8627,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B202" s="22">
         <v>5484500</v>
@@ -8344,8 +8638,8 @@
       <c r="D202" s="11">
         <v>-93.949700000000007</v>
       </c>
-      <c r="E202" s="11">
-        <v>3441</v>
+      <c r="E202" s="27">
+        <v>8908.3395209999999</v>
       </c>
       <c r="F202" s="10" t="s">
         <v>1</v>
@@ -8374,7 +8668,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B203" s="22">
         <v>6808500</v>
@@ -8385,8 +8679,8 @@
       <c r="D203" s="14">
         <v>-95.58</v>
       </c>
-      <c r="E203" s="23">
-        <v>1326</v>
+      <c r="E203" s="27">
+        <v>3432.8562059999999</v>
       </c>
       <c r="F203" s="10" t="s">
         <v>1</v>
@@ -8415,7 +8709,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B204" s="22">
         <v>6817000</v>
@@ -8426,8 +8720,8 @@
       <c r="D204" s="11">
         <v>-95.014200000000002</v>
       </c>
-      <c r="E204" s="11">
-        <v>762</v>
+      <c r="E204" s="27">
+        <v>1972.727322</v>
       </c>
       <c r="F204" s="10" t="s">
         <v>1</v>
@@ -8456,7 +8750,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B205" s="22">
         <v>7144100</v>
@@ -8467,8 +8761,8 @@
       <c r="D205" s="11">
         <v>-97.424199999999999</v>
       </c>
-      <c r="E205" s="11">
-        <v>1239</v>
+      <c r="E205" s="27">
+        <v>3207.6235589999997</v>
       </c>
       <c r="F205" s="10" t="s">
         <v>2</v>
@@ -8497,7 +8791,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B206" s="22">
         <v>7144780</v>
@@ -8508,8 +8802,8 @@
       <c r="D206" s="11">
         <v>-98.013599999999997</v>
       </c>
-      <c r="E206" s="11">
-        <v>713</v>
+      <c r="E206" s="27">
+        <v>1845.8721530000003</v>
       </c>
       <c r="F206" s="10" t="s">
         <v>1</v>
@@ -8538,7 +8832,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B207" s="22">
         <v>3254520</v>
@@ -8549,8 +8843,8 @@
       <c r="D207" s="11">
         <v>-84.448099999999997</v>
       </c>
-      <c r="E207" s="11">
-        <v>3593</v>
+      <c r="E207" s="27">
+        <v>9301.8494329999994</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>2</v>
@@ -8579,7 +8873,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B208" s="22">
         <v>3290500</v>
@@ -8590,8 +8884,8 @@
       <c r="D208" s="11">
         <v>-84.963300000000004</v>
       </c>
-      <c r="E208" s="11">
-        <v>6180</v>
+      <c r="E208" s="27">
+        <v>15999.284580000001</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>2</v>
@@ -8620,7 +8914,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B209" s="22">
         <v>3321500</v>
@@ -8631,8 +8925,8 @@
       <c r="D209" s="11">
         <v>-87.409700000000001</v>
       </c>
-      <c r="E209" s="11">
-        <v>9181</v>
+      <c r="E209" s="27">
+        <v>23768.516460999999</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>2</v>
@@ -8661,7 +8955,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B210" s="22">
         <v>1646500</v>
@@ -8672,8 +8966,8 @@
       <c r="D210" s="11">
         <v>-77.127600000000001</v>
       </c>
-      <c r="E210" s="11">
-        <v>11560</v>
+      <c r="E210" s="27">
+        <v>29927.464360000002</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>2</v>
@@ -8702,7 +8996,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B211" s="22">
         <v>6902000</v>
@@ -8713,8 +9007,8 @@
       <c r="D211" s="11">
         <v>-93.273700000000005</v>
       </c>
-      <c r="E211" s="11">
-        <v>6880</v>
+      <c r="E211" s="27">
+        <v>17811.50128</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>1</v>
@@ -8743,7 +9037,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B212" s="22">
         <v>6796500</v>
@@ -8754,8 +9048,8 @@
       <c r="D212" s="11">
         <v>-96.403899999999993</v>
       </c>
-      <c r="E212" s="11">
-        <v>4000</v>
+      <c r="E212" s="27">
+        <v>10355.523999999999</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>2</v>
@@ -8784,7 +9078,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B213" s="22">
         <v>6800500</v>
@@ -8795,8 +9089,8 @@
       <c r="D213" s="11">
         <v>-96.283900000000003</v>
       </c>
-      <c r="E213" s="11">
-        <v>6900</v>
+      <c r="E213" s="27">
+        <v>17863.278900000001</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>1</v>
@@ -8825,7 +9119,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B214" s="22">
         <v>1463500</v>
@@ -8836,8 +9130,8 @@
       <c r="D214" s="11">
         <v>-74.778099999999995</v>
       </c>
-      <c r="E214" s="11">
-        <v>6780</v>
+      <c r="E214" s="27">
+        <v>17552.61318</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>2</v>
@@ -8866,7 +9160,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B215" s="22">
         <v>4183500</v>
@@ -8877,8 +9171,8 @@
       <c r="D215" s="11">
         <v>-84.744399999999999</v>
       </c>
-      <c r="E215" s="11">
-        <v>2129</v>
+      <c r="E215" s="27">
+        <v>5511.7276490000004</v>
       </c>
       <c r="F215" s="10" t="s">
         <v>2</v>
@@ -8907,7 +9201,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B216" s="11">
         <v>14211720</v>
@@ -8918,8 +9212,8 @@
       <c r="D216" s="11">
         <v>-122.6692</v>
       </c>
-      <c r="E216" s="11">
-        <v>11200</v>
+      <c r="E216" s="27">
+        <v>28995.467199999999</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>2</v>
@@ -8948,7 +9242,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B217" s="22">
         <v>6481000</v>
@@ -8959,8 +9253,8 @@
       <c r="D217" s="11">
         <v>-96.7453</v>
       </c>
-      <c r="E217" s="11">
-        <v>3927</v>
+      <c r="E217" s="27">
+        <v>10166.535687</v>
       </c>
       <c r="F217" s="10" t="s">
         <v>2</v>
@@ -8989,7 +9283,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B218" s="22">
         <v>1673000</v>
@@ -9000,8 +9294,8 @@
       <c r="D218" s="11">
         <v>-77.332499999999996</v>
       </c>
-      <c r="E218" s="11">
-        <v>1078</v>
+      <c r="E218" s="27">
+        <v>2790.8137179999999</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>2</v>
@@ -9030,7 +9324,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B219" s="22">
         <v>2035000</v>
@@ -9041,8 +9335,8 @@
       <c r="D219" s="11">
         <v>-78.086100000000002</v>
       </c>
-      <c r="E219" s="11">
-        <v>6252</v>
+      <c r="E219" s="27">
+        <v>16185.684012000002</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>2</v>
@@ -9071,7 +9365,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B220" s="22">
         <v>12510500</v>
@@ -9082,8 +9376,8 @@
       <c r="D220" s="11">
         <v>-119.4769</v>
       </c>
-      <c r="E220" s="11">
-        <v>5615</v>
+      <c r="E220" s="27">
+        <v>14536.566815</v>
       </c>
       <c r="F220" s="10" t="s">
         <v>1</v>
@@ -9111,407 +9405,407 @@
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A221" s="24" t="s">
+      <c r="A221" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221" s="29"/>
+      <c r="C221" s="30">
+        <v>40.664700000000003</v>
+      </c>
+      <c r="D221" s="30">
+        <v>-77.904600000000002</v>
+      </c>
+      <c r="E221" s="31">
+        <v>8.0255310999999996E-2</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G221" s="30">
+        <v>0</v>
+      </c>
+      <c r="H221" s="30">
+        <v>0.114</v>
+      </c>
+      <c r="I221" s="30">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J221" s="30">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K221" s="32">
+        <v>0.69072164948453607</v>
+      </c>
+      <c r="L221" s="30">
+        <v>-0.42799999999999999</v>
+      </c>
+      <c r="M221" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B222" s="26">
+        <v>9111250</v>
+      </c>
+      <c r="C222" s="30">
+        <v>38.871600000000001</v>
+      </c>
+      <c r="D222" s="30">
+        <v>-106.9853</v>
+      </c>
+      <c r="E222" s="33">
+        <v>53.072060499999992</v>
+      </c>
+      <c r="F222" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G222" s="30">
+        <v>0</v>
+      </c>
+      <c r="H222" s="30">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I222" s="30">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J222" s="30">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K222" s="32">
+        <v>0.39759036144578314</v>
+      </c>
+      <c r="L222" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M222" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B223" s="26">
+        <v>9112500</v>
+      </c>
+      <c r="C223" s="30">
+        <v>38.916699999999999</v>
+      </c>
+      <c r="D223" s="30">
+        <v>-106.9333</v>
+      </c>
+      <c r="E223" s="33">
+        <v>300.31019600000002</v>
+      </c>
+      <c r="F223" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G223" s="30">
+        <v>0</v>
+      </c>
+      <c r="H223" s="30">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I223" s="30">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J223" s="30">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K223" s="32">
+        <v>1.3676470588235292</v>
+      </c>
+      <c r="L223" s="30">
+        <v>0.151</v>
+      </c>
+      <c r="M223" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B221" s="25"/>
-      <c r="C221" s="26">
-        <v>40.664700000000003</v>
-      </c>
-      <c r="D221" s="26">
-        <v>-77.904600000000002</v>
-      </c>
-      <c r="E221" s="26">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F221" s="26" t="s">
+      <c r="B224" s="26">
+        <v>1135100</v>
+      </c>
+      <c r="C224" s="30">
+        <v>44.491100000000003</v>
+      </c>
+      <c r="D224" s="30">
+        <v>-72.161900000000003</v>
+      </c>
+      <c r="E224" s="31">
+        <v>0.409043198</v>
+      </c>
+      <c r="F224" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G221" s="26">
+      <c r="G224" s="30">
         <v>0</v>
       </c>
-      <c r="H221" s="26">
-        <v>0.114</v>
-      </c>
-      <c r="I221" s="26">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="J221" s="26">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="K221" s="27">
-        <v>0.69072164948453607</v>
-      </c>
-      <c r="L221" s="26">
-        <v>-0.42799999999999999</v>
-      </c>
-      <c r="M221" s="28" t="s">
+      <c r="H224" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="I224" s="30">
+        <v>0.21</v>
+      </c>
+      <c r="J224" s="30">
+        <v>0.11</v>
+      </c>
+      <c r="K224" s="32">
+        <v>1.9090909090909089</v>
+      </c>
+      <c r="L224" s="30">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M224" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222" s="24" t="s">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B222" s="29">
-        <v>9111250</v>
-      </c>
-      <c r="C222" s="26">
-        <v>38.871600000000001</v>
-      </c>
-      <c r="D222" s="26">
-        <v>-106.9853</v>
-      </c>
-      <c r="E222" s="26">
-        <v>20.5</v>
-      </c>
-      <c r="F222" s="26" t="s">
+      <c r="B225" s="29"/>
+      <c r="C225" s="30">
+        <v>43.9557</v>
+      </c>
+      <c r="D225" s="30">
+        <v>-71.728800000000007</v>
+      </c>
+      <c r="E225" s="31">
+        <v>0.119088526</v>
+      </c>
+      <c r="F225" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G222" s="26">
+      <c r="G225" s="30">
         <v>0</v>
       </c>
-      <c r="H222" s="26">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I222" s="26">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J222" s="26">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="K222" s="27">
-        <v>0.39759036144578314</v>
-      </c>
-      <c r="L222" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M222" s="28" t="s">
+      <c r="H225" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="I225" s="30">
+        <v>7.28</v>
+      </c>
+      <c r="J225" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="K225" s="32">
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="L225" s="30">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="M225" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A223" s="24" t="s">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B223" s="29">
-        <v>9112500</v>
-      </c>
-      <c r="C223" s="26">
-        <v>38.916699999999999</v>
-      </c>
-      <c r="D223" s="26">
-        <v>-106.9333</v>
-      </c>
-      <c r="E223" s="26">
-        <v>116</v>
-      </c>
-      <c r="F223" s="26" t="s">
+      <c r="B226" s="29"/>
+      <c r="C226" s="30">
+        <v>43.953499999999998</v>
+      </c>
+      <c r="D226" s="30">
+        <v>-71.739599999999996</v>
+      </c>
+      <c r="E226" s="31">
+        <v>0.13203293099999999</v>
+      </c>
+      <c r="F226" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G223" s="26">
+      <c r="G226" s="30">
         <v>0</v>
       </c>
-      <c r="H223" s="26">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I223" s="26">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J223" s="26">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="K223" s="27">
-        <v>1.3676470588235292</v>
-      </c>
-      <c r="L223" s="26">
-        <v>0.151</v>
-      </c>
-      <c r="M223" s="28" t="s">
+      <c r="H226" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="I226" s="30">
+        <v>2.66</v>
+      </c>
+      <c r="J226" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="K226" s="32">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="L226" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="M226" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A224" s="24" t="s">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" s="26">
+        <v>1589330</v>
+      </c>
+      <c r="C227" s="30">
+        <v>-39.311219999999999</v>
+      </c>
+      <c r="D227" s="30">
+        <v>-76.716380000000001</v>
+      </c>
+      <c r="E227" s="33">
+        <v>14.264734309999998</v>
+      </c>
+      <c r="F227" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H227" s="30">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I227" s="30">
+        <v>0.32</v>
+      </c>
+      <c r="J227" s="30">
+        <v>1.8</v>
+      </c>
+      <c r="K227" s="32">
+        <v>0.18</v>
+      </c>
+      <c r="L227" s="30">
+        <v>-0.18</v>
+      </c>
+      <c r="M227" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B224" s="29">
-        <v>1135100</v>
-      </c>
-      <c r="C224" s="26">
-        <v>44.491100000000003</v>
-      </c>
-      <c r="D224" s="26">
-        <v>-72.161900000000003</v>
-      </c>
-      <c r="E224" s="26">
-        <v>0.158</v>
-      </c>
-      <c r="F224" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G224" s="26">
-        <v>0</v>
-      </c>
-      <c r="H224" s="26">
-        <v>0.21</v>
-      </c>
-      <c r="I224" s="26">
-        <v>0.21</v>
-      </c>
-      <c r="J224" s="26">
-        <v>0.11</v>
-      </c>
-      <c r="K224" s="27">
-        <v>1.9090909090909089</v>
-      </c>
-      <c r="L224" s="26">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="M224" s="28" t="s">
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228" s="26">
+        <v>1589180</v>
+      </c>
+      <c r="C228" s="30">
+        <v>-39.471690000000002</v>
+      </c>
+      <c r="D228" s="30">
+        <v>-76.816940000000002</v>
+      </c>
+      <c r="E228" s="31">
+        <v>0.80773087200000004</v>
+      </c>
+      <c r="F228" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G228" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H228" s="30">
+        <v>1.27</v>
+      </c>
+      <c r="I228" s="32">
+        <v>0.99</v>
+      </c>
+      <c r="J228" s="30">
+        <v>0.94</v>
+      </c>
+      <c r="K228" s="34">
+        <v>1.0531914893617023</v>
+      </c>
+      <c r="L228" s="30">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="M228" s="24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A225" s="24" t="s">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" s="26">
+        <v>1589197</v>
+      </c>
+      <c r="C229" s="30">
+        <v>-39.44294</v>
+      </c>
+      <c r="D229" s="30">
+        <v>-76.783000000000001</v>
+      </c>
+      <c r="E229" s="33">
+        <v>9.9930806599999986</v>
+      </c>
+      <c r="F229" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" s="30">
+        <v>6</v>
+      </c>
+      <c r="H229" s="30">
+        <v>1.79</v>
+      </c>
+      <c r="I229" s="32">
+        <v>1</v>
+      </c>
+      <c r="J229" s="30">
+        <v>1.57</v>
+      </c>
+      <c r="K229" s="34">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="L229" s="30">
+        <v>-0.18</v>
+      </c>
+      <c r="M229" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B225" s="25"/>
-      <c r="C225" s="26">
-        <v>43.9557</v>
-      </c>
-      <c r="D225" s="26">
-        <v>-71.728800000000007</v>
-      </c>
-      <c r="E225" s="26">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F225" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G225" s="26">
-        <v>0</v>
-      </c>
-      <c r="H225" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="I225" s="26">
-        <v>7.28</v>
-      </c>
-      <c r="J225" s="26">
-        <v>0.84</v>
-      </c>
-      <c r="K225" s="27">
-        <v>8.6666666666666679</v>
-      </c>
-      <c r="L225" s="26">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="M225" s="28" t="s">
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B230" s="26">
+        <v>1589352</v>
+      </c>
+      <c r="C230" s="30">
+        <v>-39.271500000000003</v>
+      </c>
+      <c r="D230" s="30">
+        <v>-76.648600000000002</v>
+      </c>
+      <c r="E230" s="33">
+        <v>162.84061489999999</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="30">
+        <v>5</v>
+      </c>
+      <c r="H230" s="30">
+        <v>1.18</v>
+      </c>
+      <c r="I230" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="J230" s="30">
+        <v>0.46</v>
+      </c>
+      <c r="K230" s="34">
+        <v>1.3043478260869563</v>
+      </c>
+      <c r="L230" s="30">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="M230" s="24" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A226" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B226" s="25"/>
-      <c r="C226" s="26">
-        <v>43.953499999999998</v>
-      </c>
-      <c r="D226" s="26">
-        <v>-71.739599999999996</v>
-      </c>
-      <c r="E226" s="26">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F226" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G226" s="26">
-        <v>0</v>
-      </c>
-      <c r="H226" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="I226" s="26">
-        <v>2.66</v>
-      </c>
-      <c r="J226" s="26">
-        <v>0.84</v>
-      </c>
-      <c r="K226" s="27">
-        <v>3.166666666666667</v>
-      </c>
-      <c r="L226" s="26">
-        <v>0.17</v>
-      </c>
-      <c r="M226" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A227" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B227" s="29">
-        <v>1589330</v>
-      </c>
-      <c r="C227" s="26">
-        <v>-39.311219999999999</v>
-      </c>
-      <c r="D227" s="26">
-        <v>-76.716380000000001</v>
-      </c>
-      <c r="E227" s="26">
-        <v>5.51</v>
-      </c>
-      <c r="F227" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G227" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="H227" s="26">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I227" s="26">
-        <v>0.32</v>
-      </c>
-      <c r="J227" s="26">
-        <v>1.8</v>
-      </c>
-      <c r="K227" s="27">
-        <v>0.18</v>
-      </c>
-      <c r="L227" s="26">
-        <v>-0.18</v>
-      </c>
-      <c r="M227" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A228" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B228" s="29">
-        <v>1589180</v>
-      </c>
-      <c r="C228" s="26">
-        <v>-39.471690000000002</v>
-      </c>
-      <c r="D228" s="26">
-        <v>-76.816940000000002</v>
-      </c>
-      <c r="E228" s="26">
-        <v>0.312</v>
-      </c>
-      <c r="F228" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G228" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="H228" s="26">
-        <v>1.27</v>
-      </c>
-      <c r="I228" s="27">
-        <v>0.99</v>
-      </c>
-      <c r="J228" s="26">
-        <v>0.94</v>
-      </c>
-      <c r="K228" s="31">
-        <v>1.0531914893617023</v>
-      </c>
-      <c r="L228" s="26">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="M228" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A229" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B229" s="29">
-        <v>1589197</v>
-      </c>
-      <c r="C229" s="26">
-        <v>-39.44294</v>
-      </c>
-      <c r="D229" s="26">
-        <v>-76.783000000000001</v>
-      </c>
-      <c r="E229" s="26">
-        <v>3.86</v>
-      </c>
-      <c r="F229" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G229" s="26">
-        <v>6</v>
-      </c>
-      <c r="H229" s="26">
-        <v>1.79</v>
-      </c>
-      <c r="I229" s="27">
-        <v>1</v>
-      </c>
-      <c r="J229" s="26">
-        <v>1.57</v>
-      </c>
-      <c r="K229" s="31">
-        <v>0.63694267515923564</v>
-      </c>
-      <c r="L229" s="26">
-        <v>-0.18</v>
-      </c>
-      <c r="M229" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A230" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B230" s="29">
-        <v>1589352</v>
-      </c>
-      <c r="C230" s="26">
-        <v>-39.271500000000003</v>
-      </c>
-      <c r="D230" s="26">
-        <v>-76.648600000000002</v>
-      </c>
-      <c r="E230" s="26">
-        <v>62.9</v>
-      </c>
-      <c r="F230" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G230" s="26">
-        <v>5</v>
-      </c>
-      <c r="H230" s="26">
-        <v>1.18</v>
-      </c>
-      <c r="I230" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="J230" s="26">
-        <v>0.46</v>
-      </c>
-      <c r="K230" s="31">
-        <v>1.3043478260869563</v>
-      </c>
-      <c r="L230" s="26">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="M230" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -9531,6 +9825,7 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9539,63 +9834,63 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
